--- a/cities/Dhahran/Dhahran.xlsx
+++ b/cities/Dhahran/Dhahran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,21 +472,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adam barghouti</t>
+          <t>Abdullah Batarfi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>saudi aramco</t>
+          <t>Saudi Aramco</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>consultant</t>
+          <t>Network Administrator</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,27 +501,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>bargaa0a@aramco.com.sa</t>
+          <t>batarfao@aramco.com.sa</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jamal Al-Abbad</t>
+          <t>adam barghouti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Saudi Aramco</t>
+          <t>saudi aramco</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Information Protection Specialist</t>
+          <t>consultant</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -536,27 +536,27 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>jamal.abbad@aramco.com</t>
+          <t>bargaa0a@aramco.com.sa</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kamaleldin Sadik</t>
+          <t>Jamal Al-Abbad</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aramco</t>
+          <t>Saudi Aramco</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Senior Industrial Systems Trainer</t>
+          <t>Information Protection Specialist</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -571,27 +571,27 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>kamaleldin.sadik@aramco.com</t>
+          <t>jamal.abbad@aramco.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sabah Ali</t>
+          <t>Kamaleldin Sadik</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Newhorizon</t>
+          <t>Aramco</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>instructer</t>
+          <t>Senior Industrial Systems Trainer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -606,27 +606,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sabah3li@gmail.com</t>
+          <t>kamaleldin.sadik@aramco.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>abdulaziz AlThomairi</t>
+          <t>Sabah Ali</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Saudi Aramco</t>
+          <t>Newhorizon</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Informatio Protection Managment Division Administrator</t>
+          <t>instructer</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -641,27 +641,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>abdulaziz.thomairi@aramco.com</t>
+          <t>sabah3li@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Abdulrahman Al-Shuaibi</t>
+          <t>abdulaziz AlThomairi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>KFUPM</t>
+          <t>Saudi Aramco</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Computer Operator</t>
+          <t>Informatio Protection Managment Division Administrator</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -676,27 +676,27 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Shuaibi@kfupm.edu.sa</t>
+          <t>abdulaziz.thomairi@aramco.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Khalid Moashee</t>
+          <t>Abdulrahman Al-Shuaibi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Saudi Aramco</t>
+          <t>KFUPM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>System Analyest</t>
+          <t>Computer Operator</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -711,40 +711,75 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Khalid.Moashee@aramco.com</t>
+          <t>Shuaibi@kfupm.edu.sa</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>105</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Khalid Moashee</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Saudi Aramco</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>System Analyest</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dhahran</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Khalid.Moashee@aramco.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>137</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Stephen Gomes</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Saudi Aramco</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Analyst</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Dhahran</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dhahran</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>stephen.gomes@aramco.com</t>
         </is>
